--- a/sampledata.xlsx
+++ b/sampledata.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ca03ee</t>
+          <t>307d17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>d82a1a</t>
+          <t>dabe5a</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bc19fa</t>
+          <t>6ce6d4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>eeb415</t>
+          <t>0413f4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1a0c24</t>
+          <t>fc5e88</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -618,7 +618,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>889447</t>
+          <t>10c945</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -648,7 +648,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ccaa5b</t>
+          <t>d3ee8d</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,7 +678,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7e8f55</t>
+          <t>32c9cb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>61f151</t>
+          <t>67483b</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -738,7 +738,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>e7477a</t>
+          <t>616649</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>85112d</t>
+          <t>484c03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,7 +798,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>c5c774</t>
+          <t>428d4c</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -828,7 +828,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>e73ad1</t>
+          <t>63acb2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
